--- a/data/trans_dic/P23_DUKE_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>69,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>65,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>51,21%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54,34%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55,3%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>62,61%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,96%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>56,45%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>58,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>51,92%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>54,93%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>66,5%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>60,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 25,24</t>
+          <t>48,99; 65,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,43</t>
+          <t>42,53; 61,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 17,3</t>
+          <t>39,91; 59,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,04; 78,93</t>
+          <t>44,74; 64,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 18,65</t>
+          <t>59,81; 77,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 17,38</t>
+          <t>54,77; 74,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,6</t>
+          <t>49,73; 66,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,14; 71,38</t>
+          <t>44,12; 59,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 19,83</t>
+          <t>46,5; 61,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,17</t>
+          <t>45,94; 63,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,9</t>
+          <t>53,65; 71,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,77; 72,99</t>
+          <t>46,96; 64,8</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>52,0; 64,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>45,74; 57,77</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>45,4; 57,74</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>48,53; 62,11</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>59,66; 73,34</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>53,26; 67,19</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>68,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,75%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>66,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,96%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>68,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>69,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>72,1%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>66,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>64,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>71,89%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>68,3%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>72,52%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 25,52</t>
+          <t>57,66; 77,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,64; 22,48</t>
+          <t>55,61; 72,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 39,39</t>
+          <t>54,53; 70,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,79; 76,39</t>
+          <t>65,67; 83,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 30,66</t>
+          <t>54,08; 75,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,48</t>
+          <t>63,46; 81,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 23,15</t>
+          <t>64,49; 78,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,27; 76,92</t>
+          <t>61,44; 74,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 24,56</t>
+          <t>61,57; 74,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,4; 18,74</t>
+          <t>59,58; 74,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 29,62</t>
+          <t>62,36; 75,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,22; 73,96</t>
+          <t>64,8; 79,09</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>63,71; 75,91</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>61,02; 71,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59,89; 70,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>66,03; 78,73</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>61,26; 73,75</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>66,64; 78,16</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>78,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>66,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>69,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>68,04%</t>
+          <t>77,2%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>69,39%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>69,05%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>73,29%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>68,74%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>68,03%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>75,18%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,14; 41,93</t>
+          <t>63,32; 79,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,99</t>
+          <t>62,61; 76,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 34,66</t>
+          <t>72,05; 82,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,32; 71,81</t>
+          <t>60,44; 76,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 24,48</t>
+          <t>56,55; 71,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,78; 22,97</t>
+          <t>66,22; 79,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 25,12</t>
+          <t>60,35; 72,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,54; 77,15</t>
+          <t>63,22; 72,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,99; 32,24</t>
+          <t>64,2; 73,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,08</t>
+          <t>62,27; 73,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 27,77</t>
+          <t>66,16; 77,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,97; 72,48</t>
+          <t>70,87; 82,7</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>63,95; 73,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>65,37; 73,04</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>69,4; 76,99</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>64,06; 73,64</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>63,11; 72,32</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>69,92; 79,45</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>74,97%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>82,1%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>25,88%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>79,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>76,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>69,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>69,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>72,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>77,09%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>79,3%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>74,74%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 25,28</t>
+          <t>63,53; 76,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 29,06</t>
+          <t>66,03; 77,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,21; 24,53</t>
+          <t>65,14; 76,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,48; 86,79</t>
+          <t>69,25; 80,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 30,91</t>
+          <t>76,29; 87,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 32,25</t>
+          <t>74,18; 85,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,35; 35,61</t>
+          <t>62,62; 73,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,23; 81,17</t>
+          <t>71,51; 80,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,0</t>
+          <t>67,5; 77,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,47</t>
+          <t>74,59; 83,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 28,62</t>
+          <t>69,95; 81,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,03; 83,19</t>
+          <t>62,31; 74,15</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>65,34; 73,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>70,43; 77,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>68,09; 75,41</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>72,88; 80,33</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>74,34; 82,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>70,75; 78,67</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>67,36%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>69,7%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>17,02%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>76,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>60,23%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>69,06%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>16,86%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>18,89%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>65,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>63,92%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>59,51%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>66,4%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>66,23%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>69,36%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>70,53%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 22,59</t>
+          <t>54,46; 68,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,97; 25,12</t>
+          <t>51,4; 65,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,29; 21,19</t>
+          <t>56,1; 70,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,64; 76,43</t>
+          <t>59,77; 74,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 22,92</t>
+          <t>62,61; 77,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,47</t>
+          <t>69,87; 82,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,85; 29,33</t>
+          <t>58,85; 72,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,14; 75,92</t>
+          <t>53,03; 66,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 20,96</t>
+          <t>62,05; 74,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,76; 24,08</t>
+          <t>56,47; 72,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 22,82</t>
+          <t>62,0; 75,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>64,46; 74,47</t>
+          <t>57,95; 71,86</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>58,95; 68,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>54,62; 64,51</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>61,45; 70,94</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>60,58; 70,93</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>64,41; 74,22</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 75,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>57,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>62,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>53,51%</t>
+          <t>63,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>53,87%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55,86%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>52,7%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>53,38%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21,58%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,22%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>18,12%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>61,79%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>54,35%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>52,14%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>58,65%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>57,65%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>53,43%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>63,4%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 33,1</t>
+          <t>47,61; 66,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,84; 24,89</t>
+          <t>38,61; 58,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,75</t>
+          <t>52,46; 71,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,36; 64,41</t>
+          <t>52,82; 71,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 28,9</t>
+          <t>43,51; 62,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,48</t>
+          <t>56,72; 74,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 42,51</t>
+          <t>44,03; 59,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,81; 63,48</t>
+          <t>46,71; 61,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,63; 27,24</t>
+          <t>48,24; 63,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,3</t>
+          <t>43,03; 61,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,25; 30,41</t>
+          <t>43,67; 64,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>45,3; 60,51</t>
+          <t>52,09; 69,96</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>48,34; 60,25</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>46,95; 58,15</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>52,43; 64,61</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>50,29; 64,59</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 60,71</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>57,06; 69,93</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>62,33%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>65,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>63,59%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>65,04%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>67,18%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>20,13%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>19,83%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>67,42%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>64,78%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>62,99%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>65,21%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>66,85%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>67,88%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>70,08%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,95</t>
+          <t>62,11; 68,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,26</t>
+          <t>59,04; 65,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,0; 22,51</t>
+          <t>62,19; 68,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65,04; 71,99</t>
+          <t>64,83; 71,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 22,45</t>
+          <t>65,5; 72,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 19,45</t>
+          <t>69,54; 75,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,91; 24,66</t>
+          <t>61,64; 67,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,84; 70,24</t>
+          <t>61,14; 66,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,42</t>
+          <t>62,66; 67,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 18,68</t>
+          <t>62,23; 68,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,17</t>
+          <t>63,86; 70,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>65,55; 70,16</t>
+          <t>64,36; 70,28</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>62,62; 66,9</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>61,02; 65,0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>63,19; 67,16</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>64,37; 69,09</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 70,12</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>67,83; 72,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>277149</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>263701</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>246621</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>248061</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29142</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27609</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>257174</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>260482</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>273877</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>262707</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21763</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>534323</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>524184</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>520499</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>510768</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>52141</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>49372</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>233329; 310881</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>215124; 309918</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>198913; 296285</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>203501; 295059</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24926; 32216</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23257; 31488</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>221270; 295463</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>224426; 301262</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>234380; 311805</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>218246; 301964</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19706; 26438</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18106; 24981</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>479031; 590439</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>464026; 586065</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>455137; 578824</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>451273; 577627</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>46779; 57511</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>43150; 54437</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>375464</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>340987</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>356405</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>423259</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32512</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>35442</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>350421</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>335583</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>347529</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>339008</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32537</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>32394</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>725886</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>676570</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>703934</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>762268</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>65049</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>67836</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>316287; 422984</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>295915; 384000</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>312311; 403279</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>368072; 466542</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26348; 36858</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30846; 39522</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>312920; 383294</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>299556; 363702</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>314449; 379601</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>297855; 372843</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29008; 35308</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29112; 35533</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>658585; 784690</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>622157; 727478</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>648869; 760799</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>700215; 834816</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>58343; 70242</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>62336; 73106</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>457214</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>444438</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>491794</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>448843</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37018</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>43314</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>462637</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>464213</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>478438</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>474490</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36588</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>41164</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>919851</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>908651</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>970233</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>923334</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>73605</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>84478</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>399852; 503574</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>397330; 482532</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>454209; 520162</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>391205; 495469</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32393; 40704</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39103; 46918</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>418987; 501733</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>430654; 497165</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>445112; 507170</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>433317; 509915</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33684; 39512</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37787; 44094</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>847790; 973203</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>860216; 961102</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>918736; 1019162</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>860491; 989142</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>68280; 78239</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>78569; 89280</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>408645</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>414867</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>422973</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>462541</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>45301</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44152</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>435108</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>478167</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>449713</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>511682</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>37851</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>34784</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>843753</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>893035</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>872686</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>974223</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>83151</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>78937</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>370986; 445618</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>380759; 449177</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>386875; 452669</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>427229; 494709</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42095; 48259</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40988; 47077</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>393797; 464792</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>450486; 506607</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>416623; 478343</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>482450; 540585</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34754; 40494</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31381; 37344</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>792473; 891408</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>849843; 936688</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>824619; 913339</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>921084; 1015209</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>77957; 86759</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>74731; 83092</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>259090</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>242676</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>284323</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>305051</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>27376</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31130</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>311412</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>263541</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>321521</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>294260</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31070</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29061</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>570501</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>506217</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>605843</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>599312</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>58447</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>60191</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>230882; 288516</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>212342; 269033</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>248128; 310497</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>270685; 338386</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24594; 30320</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28508; 33661</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>275760; 339831</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>232053; 289976</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>291689; 352199</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>255232; 328174</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27892; 33744</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25804; 32001</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>526188; 610027</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>464675; 548828</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>560642; 647236</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>548145; 641825</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>54278; 62545</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>56558; 64637</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>243217</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>181019</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>260301</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>287451</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18639</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23841</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>305472</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>312521</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>323120</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>286588</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28284</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32377</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>548690</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>493539</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>583422</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>574039</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>46923</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>56218</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>200327; 279476</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>141478; 216190</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>218374; 296542</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>238752; 323972</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>15158; 21800</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20573; 26952</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>259208; 350477</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>270970; 355019</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>279040; 366939</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>233991; 336900</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>23138; 34085</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27295; 36662</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>488018; 608232</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>444466; 550495</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>521534; 642766</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>500823; 643178</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>40505; 53315</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>50596; 62007</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>687.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>585.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>987.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1037.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>818.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1495.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1729.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1847.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1483.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1293.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1363.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2020780</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1887687</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2062417</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2175207</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>189988</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>205488</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2122224</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2114508</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2194199</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2168735</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>189330</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>191543</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>4143004</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>4002195</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>4256615</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>4343943</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>379317</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>397031</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1916141; 2117698</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1788230; 1983126</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1961549; 2158777</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2064443; 2284187</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>181435; 199775</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>196428; 214457</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2040637; 2223145</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2033166; 2209583</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2114026; 2281452</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2061807; 2264628</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>179964; 197960</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>182846; 199669</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4004738; 4278749</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3877490; 4130218</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4124701; 4384030</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4182749; 4489342</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>365751; 391830</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>384275; 408757</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
